--- a/GUI + Reviews/202512/Review 202512/Dataiku/CLAMP_EMS_2025-12-11_2025-12-11-23-03-54.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/CLAMP_EMS_2025-12-11_2025-12-11-23-03-54.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C7F22A69EAC36D87AC36FED53C95CAB02D95CE4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F727FD58-FA36-4D48-9F0D-B07426AFFB9E}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -355,8 +333,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,250 +397,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Index Market Cap"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="Top 75 Carbon Budget"/>
-      <sheetName val="Final Selection"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>BE0974293251</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>DE000A1EWWW0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>NL0012969182</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>NL0011794037</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>DE0008404005</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>NL0010273215</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>FR0000120628</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>ES0113900J37</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>FR0000131104</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>ES0140609019</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>FR0000120644</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>DE0005140008</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>DE0005552004</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>DE0005557508</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>DE000ENAG999</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>FR0010208488</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>IT0000062072</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>DE0006047004</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>ES0144580Y14</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>ES0148396007</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>NL0011821202</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>IT0000072618</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>FR0000120321</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>DE0007100000</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>DE0008430026</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>FI0009000681</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>FI4000297767</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>GB00B2B0DG97</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>IE00BYTBXV33</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>FR0000073272</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>FR0000125007</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>FR0000120578</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>DE0007164600</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>DE0007236101</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>DE000ENER6Y0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>FR0000130809</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>BE0003739530</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>IT0005239360</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>GB00BVZK7T90</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>FR0000125486</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -700,7 +441,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -734,7 +475,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -769,10 +509,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -945,16 +684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1005,12 +742,8 @@
       <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="I2" t="b">
-        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1035,12 +768,8 @@
       <c r="H3" t="s">
         <v>97</v>
       </c>
-      <c r="I3" t="b">
-        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1065,12 +794,8 @@
       <c r="H4" t="s">
         <v>97</v>
       </c>
-      <c r="I4" t="b">
-        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1095,12 +820,8 @@
       <c r="H5" t="s">
         <v>97</v>
       </c>
-      <c r="I5" t="b">
-        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1125,12 +846,8 @@
       <c r="H6" t="s">
         <v>97</v>
       </c>
-      <c r="I6" t="b">
-        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1155,12 +872,8 @@
       <c r="H7" t="s">
         <v>97</v>
       </c>
-      <c r="I7" t="b">
-        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1185,12 +898,8 @@
       <c r="H8" t="s">
         <v>97</v>
       </c>
-      <c r="I8" t="b">
-        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1215,12 +924,8 @@
       <c r="H9" t="s">
         <v>97</v>
       </c>
-      <c r="I9" t="b">
-        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1245,12 +950,8 @@
       <c r="H10" t="s">
         <v>97</v>
       </c>
-      <c r="I10" t="b">
-        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1275,12 +976,8 @@
       <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="I11" t="b">
-        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1305,12 +1002,8 @@
       <c r="H12" t="s">
         <v>97</v>
       </c>
-      <c r="I12" t="b">
-        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1335,12 +1028,8 @@
       <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="b">
-        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1365,12 +1054,8 @@
       <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="I14" t="b">
-        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1395,12 +1080,8 @@
       <c r="H15" t="s">
         <v>97</v>
       </c>
-      <c r="I15" t="b">
-        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1425,12 +1106,8 @@
       <c r="H16" t="s">
         <v>97</v>
       </c>
-      <c r="I16" t="b">
-        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1455,12 +1132,8 @@
       <c r="H17" t="s">
         <v>97</v>
       </c>
-      <c r="I17" t="b">
-        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1485,12 +1158,8 @@
       <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="I18" t="b">
-        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1515,12 +1184,8 @@
       <c r="H19" t="s">
         <v>97</v>
       </c>
-      <c r="I19" t="b">
-        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1545,12 +1210,8 @@
       <c r="H20" t="s">
         <v>97</v>
       </c>
-      <c r="I20" t="b">
-        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1575,12 +1236,8 @@
       <c r="H21" t="s">
         <v>97</v>
       </c>
-      <c r="I21" t="b">
-        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1605,12 +1262,8 @@
       <c r="H22" t="s">
         <v>97</v>
       </c>
-      <c r="I22" t="b">
-        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1635,12 +1288,8 @@
       <c r="H23" t="s">
         <v>97</v>
       </c>
-      <c r="I23" t="b">
-        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1665,12 +1314,8 @@
       <c r="H24" t="s">
         <v>97</v>
       </c>
-      <c r="I24" t="b">
-        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1695,12 +1340,8 @@
       <c r="H25" t="s">
         <v>97</v>
       </c>
-      <c r="I25" t="b">
-        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1725,12 +1366,8 @@
       <c r="H26" t="s">
         <v>97</v>
       </c>
-      <c r="I26" t="b">
-        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1755,12 +1392,8 @@
       <c r="H27" t="s">
         <v>97</v>
       </c>
-      <c r="I27" t="b">
-        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1785,12 +1418,8 @@
       <c r="H28" t="s">
         <v>97</v>
       </c>
-      <c r="I28" t="b">
-        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1815,12 +1444,8 @@
       <c r="H29" t="s">
         <v>97</v>
       </c>
-      <c r="I29" t="b">
-        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1845,12 +1470,8 @@
       <c r="H30" t="s">
         <v>97</v>
       </c>
-      <c r="I30" t="b">
-        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1875,12 +1496,8 @@
       <c r="H31" t="s">
         <v>97</v>
       </c>
-      <c r="I31" t="b">
-        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1905,12 +1522,8 @@
       <c r="H32" t="s">
         <v>97</v>
       </c>
-      <c r="I32" t="b">
-        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1935,12 +1548,8 @@
       <c r="H33" t="s">
         <v>97</v>
       </c>
-      <c r="I33" t="b">
-        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1965,12 +1574,8 @@
       <c r="H34" t="s">
         <v>97</v>
       </c>
-      <c r="I34" t="b">
-        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1995,12 +1600,8 @@
       <c r="H35" t="s">
         <v>97</v>
       </c>
-      <c r="I35" t="b">
-        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2025,12 +1626,8 @@
       <c r="H36" t="s">
         <v>97</v>
       </c>
-      <c r="I36" t="b">
-        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2055,12 +1652,8 @@
       <c r="H37" t="s">
         <v>97</v>
       </c>
-      <c r="I37" t="b">
-        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2085,12 +1678,8 @@
       <c r="H38" t="s">
         <v>97</v>
       </c>
-      <c r="I38" t="b">
-        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2115,12 +1704,8 @@
       <c r="H39" t="s">
         <v>97</v>
       </c>
-      <c r="I39" t="b">
-        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2145,12 +1730,8 @@
       <c r="H40" t="s">
         <v>97</v>
       </c>
-      <c r="I40" t="b">
-        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2175,28 +1756,21 @@
       <c r="H41" t="s">
         <v>97</v>
       </c>
-      <c r="I41" t="b">
-        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2218,7 +1792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2231,21 +1805,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -2267,7 +1838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -2278,7 +1849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -2291,8 +1862,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>